--- a/polarization/related/DaveTiming.xlsx
+++ b/polarization/related/DaveTiming.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>FPGA Frequency</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Angle of Polarization</t>
+  </si>
+  <si>
+    <t>Interpolation Int</t>
   </si>
 </sst>
 </file>
@@ -174,10 +177,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1086,6 +1089,147 @@
         <v>21.0198242962286</v>
       </c>
     </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">C53*B53*A53</f>
+        <v>32400</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>469000</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <f aca="false">E53/D53</f>
+        <v>14.4753086419753</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <f aca="false">$A$2/(F53*B53*A53)</f>
+        <v>120895.52238806</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <f aca="false">$B$2/G53</f>
+        <v>0.000248148148148148</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">C54*B54*A54</f>
+        <v>17500</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1234000</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <f aca="false">E54/D54</f>
+        <v>70.5142857142857</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">$A$2/(F54*B54*A54)</f>
+        <v>3970.8265802269</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <f aca="false">$B$2/G54</f>
+        <v>0.00755510204081633</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">C55*B55*A55</f>
+        <v>30000</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>2023000</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <f aca="false">E55/D55</f>
+        <v>67.4333333333333</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">$A$2/(F55*B55*A55)</f>
+        <v>1038.06228373702</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <f aca="false">$B$2/G55</f>
+        <v>0.0289</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <f aca="false">AVERAGE(F53:F55)</f>
+        <v>50.8076425631981</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">$A$2/(F56*B56*A56)</f>
+        <v>6.64422011066396</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <f aca="false">$B$2/G56</f>
+        <v>4.5152026122449</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
